--- a/postpartum_depression_prediction/P1/P1_evans-poire-lin_quartz-bad-data-checklist_WL.xlsx
+++ b/postpartum_depression_prediction/P1/P1_evans-poire-lin_quartz-bad-data-checklist_WL.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apoir\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{38C33C32-9E65-40F2-B25D-22CD613346D3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22040" windowHeight="13840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quartz-bad-data-checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Alfonso Poire - Personal View" guid="{96F53137-77BD-49DB-9B7A-EDB49E030D32}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="mac - Personal View" guid="{6FCFF1F6-5A04-764A-881C-B76742C48FFF}" mergeInterval="0" personalView="1" yWindow="54" windowWidth="1102" windowHeight="638" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
@@ -22,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nathaniel Evans</author>
   </authors>
   <commentList>
-    <comment ref="B37" authorId="0" guid="{A6135161-C712-5D44-BDBB-7FC554354065}">
+    <comment ref="B37" authorId="0" guid="{19648BE0-747B-47C9-B403-B6E1667597B5}" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="71">
   <si>
     <t>Issue</t>
   </si>
@@ -274,7 +281,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -634,7 +641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,23 +860,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -883,7 +874,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{511CE0D6-C495-7843-A7F0-E85A616701D7}" diskRevisions="1" revisionId="6" version="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5D17D770-5290-448F-BF6E-DD1EBF5AAC04}" diskRevisions="1" revisionId="8" version="3">
   <header guid="{BDA56FC8-F351-5642-9E1E-AE96C7403075}" dateTime="2018-10-22T17:50:08" maxSheetId="2" userName="mac" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -934,6 +925,11 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{5D17D770-5290-448F-BF6E-DD1EBF5AAC04}" dateTime="2018-10-22T18:03:13" maxSheetId="2" userName="Alfonso Poire" r:id="rId11" minRId="7" maxRId="8">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -945,6 +941,53 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{6FCFF1F6-5A04-764A-881C-B76742C48FFF}" action="delete"/>
   <rcv guid="{6FCFF1F6-5A04-764A-881C-B76742C48FFF}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="7" sId="1" xfDxf="1" dxf="1">
+    <oc r="B36" t="inlineStr">
+      <is>
+        <t>NA</t>
+      </is>
+    </oc>
+    <nc r="B36" t="inlineStr">
+      <is>
+        <t xml:space="preserve">This is true with especaly with respect to the Edinburgh Postnatal Depression Scale this has been highly manipulated </t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="8" sId="1">
+    <oc r="B37" t="inlineStr">
+      <is>
+        <t xml:space="preserve">This is true with especaly with respect to the Edinburgh Postnatal Depression Scale this has been highly manipulated </t>
+      </is>
+    </oc>
+    <nc r="B37" t="inlineStr">
+      <is>
+        <t>NA</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="B37">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcv guid="{96F53137-77BD-49DB-9B7A-EDB49E030D32}" action="add"/>
 </revisions>
 </file>
 
@@ -1379,32 +1422,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54.6640625" customWidth="1"/>
-    <col min="2" max="2" width="93.1640625" customWidth="1"/>
+    <col min="2" max="2" width="93.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1412,7 +1455,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1420,7 +1463,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1428,7 +1471,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1436,7 +1479,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1444,7 +1487,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1452,7 +1495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1460,7 +1503,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1468,7 +1511,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1476,7 +1519,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1484,7 +1527,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1492,7 +1535,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1500,7 +1543,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1508,7 +1551,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1516,7 +1559,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15">
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1524,7 +1567,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15">
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1532,7 +1575,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15">
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1540,7 +1583,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15">
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +1591,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15">
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1556,7 +1599,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15">
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1564,7 +1607,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15">
+    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1572,7 +1615,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15">
+    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1580,7 +1623,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15">
+    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1588,7 +1631,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15">
+    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1596,7 +1639,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15">
+    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1604,7 +1647,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15">
+    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1612,7 +1655,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15">
+    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1620,7 +1663,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15">
+    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1628,7 +1671,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15">
+    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1636,7 +1679,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15">
+    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1644,7 +1687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15">
+    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1652,7 +1695,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15">
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1660,7 +1703,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15">
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1668,7 +1711,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1676,28 +1719,28 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15">
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15">
+    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1705,7 +1748,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15">
+    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1713,7 +1756,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15">
+    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1721,7 +1764,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15">
+    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1729,7 +1772,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15">
+    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -1737,7 +1780,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15">
+    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -1745,7 +1788,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15">
+    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -1753,7 +1796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15">
+    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -1761,7 +1804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15">
+    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -1769,19 +1812,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15">
+    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{96F53137-77BD-49DB-9B7A-EDB49E030D32}" topLeftCell="A19">
+      <selection activeCell="D37" sqref="D37"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{6FCFF1F6-5A04-764A-881C-B76742C48FFF}">
       <selection activeCell="B9" sqref="B9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
